--- a/Backend/.venv/output/output.xlsx
+++ b/Backend/.venv/output/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,254 +424,258 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Income-m</t>
+          <t>HR Information</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>atching Po</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Itfolio of</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Dedicated</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Securities</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Issue</t>
+          <t>Salary</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Coupon</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Portfolio Cash Flowa</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Target Cash Flews</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>xcess nortfall</t>
+          <t>Extn:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4.00%0</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>401%0</t>
+          <t>S162,700</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>368,324</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S100,380</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>S10o,D0d</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8380</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>5407</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4.25*0</t>
+          <t>Chief Executive Officer (CEO)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5103,Jun</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>S1,200,000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ldenc</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>Junior Technical Author</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$86,000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AgltIC}</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>58/,J73</t>
+          <t>S132,000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUs 213</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S206,850</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NeAc</t>
+          <t>Integration Specialist</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3nee</t>
+          <t>S372,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yac ne</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dac</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0o8r</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>4804</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S163,500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6222</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9757325</t>
+          <t>Pre-Sales Support</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9889.350</t>
+          <t>S106,450</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9889.23</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9116</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>8330</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Comelnn</t>
+          <t>Sales Assistant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>99.9436</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>S145,600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Javascript Developer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S433,060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6224</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Backend/.venv/output/output.xlsx
+++ b/Backend/.venv/output/output.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Page 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Page 1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +444,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>HR Information</t>
+          <t>Example</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Data Table</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -438,244 +458,159 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>blue ED value</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>green LED value</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Extn:</t>
+          <t>red LED value</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Accountant</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S162,700</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tokyo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5407</t>
-        </is>
-      </c>
+          <t>clear water</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chief Executive Officer (CEO)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>S1,200,000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5797</t>
-        </is>
-      </c>
+          <t>water blue</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Junior Technical Author</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>$86,000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1562</t>
-        </is>
-      </c>
+          <t>Water Treen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S132,000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2558</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S206,850</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Integration Specialist</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>S372,000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4804</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>S163,500</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6222</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Pre-Sales Support</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>S106,450</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8330</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sales Assistant</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>S145,600</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3990</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Senior Javascript Developer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>S433,060</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Edinburgh</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6224</t>
-        </is>
-      </c>
+          <t>Tez WJte</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Example of</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Data Table 3</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>blue LED value</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>green LED value</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>red LED value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tsp milk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>+Itsp milk + blue</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>+Itsp milk +green</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>+Itsp milk + tea</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
